--- a/ReportsAndDocuments/UPDATED - Work Date and Hours Logs for Student.xlsx
+++ b/ReportsAndDocuments/UPDATED - Work Date and Hours Logs for Student.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juankatigbak/Desktop/April 2025 as of 04.06.25/W25_4495_S2_JuanCarlosK-main/ReportsAndDocuments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juankatigbak/Desktop/April 2025 as of 04.10.25/W25_4495_S2_JuanCarlosK-main/ReportsAndDocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672FF163-49D4-7E4A-91AC-55EC8726EB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3499BA55-D3E9-F34B-8CAE-7A43E608818E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14920" yWindow="-21100" windowWidth="30340" windowHeight="21100" xr2:uid="{07F342E0-D1FD-0243-A31B-CCC5ED5F7751}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{07F342E0-D1FD-0243-A31B-CCC5ED5F7751}"/>
   </bookViews>
   <sheets>
     <sheet name="Work Log Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>Juan Carlos Katigbak</t>
   </si>
@@ -309,6 +309,27 @@
   </si>
   <si>
     <t>Finished "JuanCarlosK_ProgressReport5.pdf", uploaded it on Blackboard and added it to Repo</t>
+  </si>
+  <si>
+    <t>April 7, 2025</t>
+  </si>
+  <si>
+    <t>100% done with PlayAnalytics (now called PlayAnalytics 2.5 ready for user feedback and presentation) for PHASE 4: PlayAnalytics (Sports Management Portal) Presentation to Client which I uploaded to Repo (Implementation &gt; PlayAnalytics 2.5 ready for user feedback and presentation) . Basically 3 of 3 features (finished the Profiles page, Prediction page, and Dashboard page) is finally done ready for user feedback and defense presentation</t>
+  </si>
+  <si>
+    <t>Made some minor tweaks with PlayAnalytics (now called PlayAnalytics 2.5.1 ready for user feedback and presentation) for PHASE 4: PlayAnalytics (Sports Management Portal) Presentation to Client which I uploaded to Repo (Implementation &gt; PlayAnalytics 2.5.1 ready for user feedback and presentation) and created a zipped file of PlayAnalytics which is outside the Implementation folder so that it is ready for user feedback and presentation</t>
+  </si>
+  <si>
+    <t>April 10, 2025</t>
+  </si>
+  <si>
+    <t>Created a PlayAnalytics User Feedback Survey using Microsoft Forms for PHASE 4: PlayAnalytics (Sports Management Portal) Presentation to Client and shared link with 21 persons with deadline to gather responses by April 10, Thursday</t>
+  </si>
+  <si>
+    <t>Uploaded to Repo "PlayAnalytics User Feedback Survey(1-17).xlsx" under ReportsAndDocuments folder collecting user feedback from 17 out of 21 respondents for PHASE 4: PlayAnalytics (Sports Management Portal) Presentation to Client</t>
+  </si>
+  <si>
+    <t>Updated  file "README.md" and uploaded to Repo</t>
   </si>
 </sst>
 </file>
@@ -699,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547A63FE-C89E-DD48-BF7A-B2EC955BC3BF}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1239,6 +1260,60 @@
         <v>89</v>
       </c>
     </row>
+    <row r="53" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
